--- a/work/闪电购接口规范@20171115.xlsx
+++ b/work/闪电购接口规范@20171115.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="闪电购口径" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="157">
   <si>
     <t>字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,6 +242,330 @@
   <si>
     <t>目录：/2I_data/detail/sdg</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>prov_id</t>
+  </si>
+  <si>
+    <t>area_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>iccid</t>
+  </si>
+  <si>
+    <t>sim_satus</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>dev_name</t>
+  </si>
+  <si>
+    <t>dev_no</t>
+  </si>
+  <si>
+    <t>dev_chnl_no</t>
+  </si>
+  <si>
+    <t>bind_date</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>device_number</t>
+  </si>
+  <si>
+    <t>cust_name</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>concat_phone</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>activate_date</t>
+  </si>
+  <si>
+    <t>oper_date</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>goods_name</t>
+  </si>
+  <si>
+    <t>is_shiming</t>
+  </si>
+  <si>
+    <t>shendan_id</t>
+  </si>
+  <si>
+    <t>activate_id</t>
+  </si>
+  <si>
+    <t>order_back_date</t>
+  </si>
+  <si>
+    <t>order_back_reason</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>channel_name</t>
+  </si>
+  <si>
+    <t>pay_charge_time</t>
+  </si>
+  <si>
+    <t>pay_charge</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>柳州</t>
+  </si>
+  <si>
+    <t>已激活</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>T鱼峰移固王甫海</t>
+  </si>
+  <si>
+    <t>87a0717</t>
+  </si>
+  <si>
+    <t>D鱼峰移固唐红丽</t>
+  </si>
+  <si>
+    <t>开户转人工</t>
+  </si>
+  <si>
+    <t>D鱼峰移固覃闯</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>语丝通讯</t>
+  </si>
+  <si>
+    <t>59b2gh3</t>
+  </si>
+  <si>
+    <t>地推吧李梓东</t>
+  </si>
+  <si>
+    <t>地推吧谢芳</t>
+  </si>
+  <si>
+    <t>4065925743</t>
+  </si>
+  <si>
+    <t>8986011737593002039</t>
+  </si>
+  <si>
+    <t>68361729</t>
+  </si>
+  <si>
+    <t>5906672709</t>
+  </si>
+  <si>
+    <t>20180121</t>
+  </si>
+  <si>
+    <t>14:08:54</t>
+  </si>
+  <si>
+    <t>14:09:39</t>
+  </si>
+  <si>
+    <t>7360323705</t>
+  </si>
+  <si>
+    <t>8986011737593002057</t>
+  </si>
+  <si>
+    <t>36315477</t>
+  </si>
+  <si>
+    <t>5906937822</t>
+  </si>
+  <si>
+    <t>20180127</t>
+  </si>
+  <si>
+    <t>12:13:42</t>
+  </si>
+  <si>
+    <t>12:15:25</t>
+  </si>
+  <si>
+    <t>1381206926</t>
+  </si>
+  <si>
+    <t>8986011737593002029</t>
+  </si>
+  <si>
+    <t>87729956</t>
+  </si>
+  <si>
+    <t>20180202</t>
+  </si>
+  <si>
+    <t>14:35:51</t>
+  </si>
+  <si>
+    <t>14:36:39</t>
+  </si>
+  <si>
+    <t>4271085994</t>
+  </si>
+  <si>
+    <t>8986011737593002061</t>
+  </si>
+  <si>
+    <t>45702643</t>
+  </si>
+  <si>
+    <t>20180115</t>
+  </si>
+  <si>
+    <t>12:50:49</t>
+  </si>
+  <si>
+    <t>12:51:39</t>
+  </si>
+  <si>
+    <t>5903034438</t>
+  </si>
+  <si>
+    <t>8986011737593002004</t>
+  </si>
+  <si>
+    <t>04817386</t>
+  </si>
+  <si>
+    <t>5906900928</t>
+  </si>
+  <si>
+    <t>20180129</t>
+  </si>
+  <si>
+    <t>12:02:00</t>
+  </si>
+  <si>
+    <t>12:05:08</t>
+  </si>
+  <si>
+    <t>5041027856</t>
+  </si>
+  <si>
+    <t>8986011557591001081</t>
+  </si>
+  <si>
+    <t>52328714</t>
+  </si>
+  <si>
+    <t>5906755548</t>
+  </si>
+  <si>
+    <t>11:16:10</t>
+  </si>
+  <si>
+    <t>11:17:22</t>
+  </si>
+  <si>
+    <t>1263342105</t>
+  </si>
+  <si>
+    <t>8986011737593002062</t>
+  </si>
+  <si>
+    <t>84386876</t>
+  </si>
+  <si>
+    <t>20180119</t>
+  </si>
+  <si>
+    <t>12:24:05</t>
+  </si>
+  <si>
+    <t>12:24:32</t>
+  </si>
+  <si>
+    <t>6443534973</t>
+  </si>
+  <si>
+    <t>8986011623591009456</t>
+  </si>
+  <si>
+    <t>79237548</t>
+  </si>
+  <si>
+    <t>5907110119</t>
+  </si>
+  <si>
+    <t>12:47:24</t>
+  </si>
+  <si>
+    <t>12:48:12</t>
+  </si>
+  <si>
+    <t>4813991662</t>
+  </si>
+  <si>
+    <t>8986011780114282439</t>
+  </si>
+  <si>
+    <t>40691942</t>
+  </si>
+  <si>
+    <t>5907110096</t>
+  </si>
+  <si>
+    <t>13:50:57</t>
+  </si>
+  <si>
+    <t>13:51:40</t>
+  </si>
+  <si>
+    <t>6682786642</t>
+  </si>
+  <si>
+    <t>8986011737593002001</t>
+  </si>
+  <si>
+    <t>40135525</t>
+  </si>
+  <si>
+    <t>18:07:08</t>
+  </si>
+  <si>
+    <t>18:10:30</t>
   </si>
 </sst>
 </file>
@@ -382,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -427,6 +752,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -733,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1216,4 +1542,599 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="9" style="18"/>
+    <col min="6" max="6" width="23.625" style="18" customWidth="1"/>
+    <col min="7" max="10" width="9" style="18"/>
+    <col min="11" max="11" width="12.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18"/>
+    <col min="13" max="13" width="13.875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="22.125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.875" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>